--- a/Tables/Table 1 - GOCoExpressionTable.xlsx
+++ b/Tables/Table 1 - GOCoExpressionTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ZmPAN</t>
   </si>
@@ -101,12 +101,37 @@
       <t xml:space="preserve"> 0.01) GO Terms (n = 1078)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Significantly co-expressed GO terms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Co-expression was measured among genes within each GO term that had co-expression data in each network using both density (Eq. 1) and locality (Eq. 2). Significance of co-expression metrics was assessed by comparing values to 1,000 random gene sets of the same size.
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +144,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -326,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,15 +373,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,6 +391,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,52 +685,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="2" max="3" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -705,21 +727,19 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>14</v>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -732,21 +752,21 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>15</v>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -759,21 +779,21 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>16</v>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -786,24 +806,34 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -820,7 +850,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -837,7 +867,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -854,7 +884,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -871,7 +901,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -888,7 +918,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -905,7 +935,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -922,7 +952,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -939,7 +969,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -956,7 +986,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -973,7 +1003,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -990,7 +1020,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1007,7 +1037,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1024,7 +1054,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1041,7 +1071,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1058,7 +1088,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1075,7 +1105,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1092,7 +1122,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1109,7 +1139,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1126,7 +1156,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1143,7 +1173,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1160,7 +1190,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1177,7 +1207,7 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1194,7 +1224,7 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1211,7 +1241,7 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1228,7 +1258,7 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1245,7 +1275,7 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1262,7 +1292,7 @@
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1279,7 +1309,7 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1296,7 +1326,7 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1313,7 +1343,7 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1330,7 +1360,7 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1347,7 +1377,7 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1364,7 +1394,7 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1381,7 +1411,7 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1398,7 +1428,7 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1415,7 +1445,7 @@
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1432,7 +1462,7 @@
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1449,7 +1479,7 @@
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1466,7 +1496,7 @@
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1483,7 +1513,7 @@
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1500,9 +1530,27 @@
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
     </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
